--- a/日程行程工作规划-2021年6月7日.xlsx
+++ b/日程行程工作规划-2021年6月7日.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUYixiong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\research\NowORNever1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B368B-6453-4309-B05C-DDD736DBAA3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD26C66-E770-4D26-9527-B001EE60F371}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132" activeTab="1" xr2:uid="{7AB39B35-62EB-4918-81A8-50C5692919A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{7AB39B35-62EB-4918-81A8-50C5692919A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +311,21 @@
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,18 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -338,74 +341,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -557,7 +492,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -848,18 +783,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BD8993-B83D-4F0D-AE8B-6DE453A6C5E7}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="17" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C1" s="11">
         <v>44354</v>
       </c>
@@ -906,9 +841,9 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -955,7 +890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -978,7 +913,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0.375</v>
       </c>
@@ -989,9 +924,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1003,7 +936,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.41666666666666702</v>
       </c>
@@ -1011,21 +944,17 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="14" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="4"/>
@@ -1034,7 +963,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0.45833333333333298</v>
       </c>
@@ -1042,22 +971,22 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>0.5</v>
       </c>
@@ -1080,7 +1009,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>0.54166666666666596</v>
       </c>
@@ -1103,7 +1032,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>0.58333333333333304</v>
       </c>
@@ -1126,7 +1055,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>0.625</v>
       </c>
@@ -1135,7 +1064,7 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -1149,7 +1078,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>0.66666666666666596</v>
       </c>
@@ -1158,18 +1087,16 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="E11" s="12"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="7"/>
@@ -1178,7 +1105,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>0.70833333333333304</v>
       </c>
@@ -1187,21 +1114,21 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>0.75</v>
       </c>
@@ -1224,7 +1151,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>0.79166666666666696</v>
       </c>
@@ -1247,7 +1174,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>0.83333333333333304</v>
       </c>
@@ -1270,7 +1197,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>0.875</v>
       </c>
@@ -1293,7 +1220,7 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>0.91666666666666696</v>
       </c>
@@ -1316,19 +1243,16 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="E5:E6"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1341,18 +1265,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7D099A-00E7-43D1-A2A5-9FC90CD93CF7}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C1" s="11">
         <v>44354</v>
       </c>
@@ -1396,9 +1320,9 @@
         <v>44367</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -1466,7 +1390,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0.375</v>
       </c>
@@ -1479,7 +1403,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="4"/>
@@ -1492,7 +1416,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.41666666666666702</v>
       </c>
@@ -1502,10 +1426,10 @@
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="4"/>
@@ -1513,10 +1437,10 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="14" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="4"/>
@@ -1524,7 +1448,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0.45833333333333298</v>
       </c>
@@ -1534,21 +1458,21 @@
       <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>0.5</v>
       </c>
@@ -1570,7 +1494,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>0.54166666666666596</v>
       </c>
@@ -1594,14 +1518,14 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>0.58333333333333304</v>
       </c>
       <c r="B9" s="6">
         <v>0.625</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="7"/>
@@ -1618,14 +1542,14 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>0.625</v>
       </c>
       <c r="B10" s="6">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -1640,16 +1564,16 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>0.66666666666666596</v>
       </c>
       <c r="B11" s="6">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7"/>
@@ -1657,10 +1581,10 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="7"/>
@@ -1668,7 +1592,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>0.70833333333333304</v>
       </c>
@@ -1679,7 +1603,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
@@ -1687,14 +1611,14 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>0.75</v>
       </c>
@@ -1718,7 +1642,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>0.79166666666666696</v>
       </c>
@@ -1742,7 +1666,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>0.83333333333333304</v>
       </c>
@@ -1764,7 +1688,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>0.875</v>
       </c>
@@ -1786,7 +1710,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>0.91666666666666696</v>
       </c>
@@ -1836,20 +1760,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
